--- a/BackTest/2020-01-22 BackTest MIX.xlsx
+++ b/BackTest/2020-01-22 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,19 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>3.04</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.04</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1775,23 @@
         <v>-1938993.97803158</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>3.04</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1818,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1888,19 @@
         <v>-1949647.68273158</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>3.049</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.049</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1927,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1966,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2005,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2044,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2083,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2122,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2161,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2200,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2239,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2278,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2317,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2356,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2395,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2434,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2473,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,22 +2510,23 @@
         <v>-3124195.36853158</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3.007</v>
       </c>
       <c r="J61" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>3.049</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2620,26 +2551,23 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="J62" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>3.049</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2664,26 +2592,23 @@
         <v>-2838569.31183158</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3.011</v>
       </c>
       <c r="J63" t="n">
-        <v>3.011</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>3.049</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,26 +2633,23 @@
         <v>-2813018.00023158</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3.029</v>
       </c>
       <c r="J64" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L64" t="inlineStr">
+        <v>3.049</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2754,22 +2676,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,22 +2715,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2838,22 +2754,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2880,22 +2793,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2922,22 +2832,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2962,24 +2869,21 @@
         <v>-2417202.74093158</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3006,22 +2910,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,24 +2947,21 @@
         <v>-2335699.08863158</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0.9989357166284029</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3090,22 +2988,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,24 +3019,15 @@
         <v>-2379701.71993158</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3172,24 +3052,15 @@
         <v>-2379701.71993158</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1.01262554040572</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3214,18 +3085,15 @@
         <v>-2412946.09383158</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3250,18 +3118,15 @@
         <v>-2438853.77193158</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3288,16 +3153,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3324,16 +3186,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3358,18 +3217,15 @@
         <v>-2450159.81653158</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3394,18 +3250,15 @@
         <v>-2451135.52553158</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3430,18 +3283,15 @@
         <v>-2482448.33613158</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3468,16 +3318,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3504,16 +3351,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3540,16 +3384,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3574,18 +3415,15 @@
         <v>-2484539.28713158</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3610,18 +3448,15 @@
         <v>-2499324.30413158</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3648,16 +3483,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3682,18 +3514,15 @@
         <v>-2482024.30413158</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3718,18 +3547,15 @@
         <v>-2530851.81513158</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3754,18 +3580,15 @@
         <v>-2522548.15903158</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3790,18 +3613,15 @@
         <v>-2513033.60913158</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3826,18 +3646,15 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3864,16 +3681,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3900,16 +3714,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3936,16 +3747,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3972,16 +3780,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4006,18 +3811,15 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4044,16 +3846,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4080,16 +3879,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4116,16 +3912,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4152,16 +3945,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4188,16 +3978,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,16 +4011,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4260,16 +4044,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4296,16 +4077,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4330,20 +4108,17 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MIX.xlsx
+++ b/BackTest/2020-01-22 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1738,14 +1738,10 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1775,19 +1771,11 @@
         <v>-1938993.97803158</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1888,14 +1870,10 @@
         <v>-1949647.68273158</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1928,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1967,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2045,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2162,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2318,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2357,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2510,19 +2398,11 @@
         <v>-3124195.36853158</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2551,19 +2431,15 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.01</v>
       </c>
       <c r="J62" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.01</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2592,17 +2468,17 @@
         <v>-2838569.31183158</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.011</v>
       </c>
       <c r="J63" t="n">
-        <v>3.049</v>
+        <v>3.01</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2633,17 +2509,15 @@
         <v>-2813018.00023158</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>3.049</v>
+        <v>3.01</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2677,14 +2551,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2716,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2833,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2713,11 @@
         <v>-2417202.74093158</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2947,19 +2779,13 @@
         <v>-2335699.08863158</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.9989357166284029</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
     </row>
@@ -3019,7 +2845,7 @@
         <v>-2379701.71993158</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3052,7 +2878,7 @@
         <v>-2379701.71993158</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3085,7 +2911,7 @@
         <v>-2412946.09383158</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3118,7 +2944,7 @@
         <v>-2438853.77193158</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3151,7 +2977,7 @@
         <v>-2437852.77193158</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3184,7 +3010,7 @@
         <v>-2469352.98243158</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3217,7 +3043,7 @@
         <v>-2450159.81653158</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3250,7 +3076,7 @@
         <v>-2451135.52553158</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3283,7 +3109,7 @@
         <v>-2482448.33613158</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3316,7 +3142,7 @@
         <v>-2486648.33613158</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3349,7 +3175,7 @@
         <v>-2484739.28713158</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3382,7 +3208,7 @@
         <v>-2484739.28713158</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3415,7 +3241,7 @@
         <v>-2484539.28713158</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3448,7 +3274,7 @@
         <v>-2499324.30413158</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3481,7 +3307,7 @@
         <v>-2490424.30413158</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3514,7 +3340,7 @@
         <v>-2482024.30413158</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3547,7 +3373,7 @@
         <v>-2530851.81513158</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3580,7 +3406,7 @@
         <v>-2522548.15903158</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3613,7 +3439,7 @@
         <v>-2513033.60913158</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3646,7 +3472,7 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3679,7 +3505,7 @@
         <v>-2490715.52913158</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3712,7 +3538,7 @@
         <v>-2455978.79223158</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3745,7 +3571,7 @@
         <v>-2442284.78093158</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3778,7 +3604,7 @@
         <v>-2476268.15943158</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3811,7 +3637,7 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3844,7 +3670,7 @@
         <v>-2415854.453884453</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3877,7 +3703,7 @@
         <v>-2424390.427384452</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3943,7 +3769,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3976,7 +3802,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4009,7 +3835,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4042,7 +3868,7 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4075,7 +3901,7 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4108,7 +3934,7 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4119,6 +3945,6 @@
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MIX.xlsx
+++ b/BackTest/2020-01-22 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>-2088692.56953158</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1913471.37073158</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1917859.50943158</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2431,14 +2431,10 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
@@ -2474,13 +2470,9 @@
         <v>3.011</v>
       </c>
       <c r="J63" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.011</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2501,13 @@
         <v>-2813018.00023158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.029</v>
+      </c>
       <c r="J64" t="n">
-        <v>3.01</v>
+        <v>3.011</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2548,11 +2542,19 @@
         <v>-2801778.27563158</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.011</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>-2379701.71993158</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2944,7 +2946,7 @@
         <v>-2438853.77193158</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2979,7 @@
         <v>-2437852.77193158</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3012,7 @@
         <v>-2469352.98243158</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3045,7 @@
         <v>-2450159.81653158</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3078,7 @@
         <v>-2451135.52553158</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3111,7 @@
         <v>-2482448.33613158</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3144,7 @@
         <v>-2486648.33613158</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3177,7 @@
         <v>-2484739.28713158</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3210,7 @@
         <v>-2484739.28713158</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3243,7 @@
         <v>-2484539.28713158</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3276,7 @@
         <v>-2499324.30413158</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3309,7 @@
         <v>-2490424.30413158</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3342,7 @@
         <v>-2482024.30413158</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3375,7 @@
         <v>-2530851.81513158</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3408,7 @@
         <v>-2522548.15903158</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3441,7 @@
         <v>-2513033.60913158</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3474,7 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3507,7 @@
         <v>-2490715.52913158</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3540,7 @@
         <v>-2455978.79223158</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3573,7 @@
         <v>-2442284.78093158</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3606,7 @@
         <v>-2476268.15943158</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3639,7 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3672,7 @@
         <v>-2415854.453884453</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3705,7 @@
         <v>-2424390.427384452</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3769,7 +3771,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3804,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3837,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3870,7 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3903,7 @@
         <v>-2450578.182884452</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3945,6 +3947,6 @@
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MIX.xlsx
+++ b/BackTest/2020-01-22 BackTest MIX.xlsx
@@ -1276,7 +1276,7 @@
         <v>-2088692.56953158</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1913471.37073158</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1917859.50943158</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1705,10 +1705,14 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.04</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1742,19 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1783,19 @@
         <v>-1938993.97803158</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,10 +1824,14 @@
         <v>-1939759.12273158</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.05</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1840,8 +1864,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1900,19 @@
         <v>-1949647.68273158</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2403,17 @@
         <v>-3131193.36853158</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.01</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2442,17 @@
         <v>-3124195.36853158</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.007</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2481,17 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.01</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2469,10 +2525,12 @@
       <c r="I63" t="n">
         <v>3.011</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.011</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2559,13 @@
         <v>-2813018.00023158</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2542,17 +2596,13 @@
         <v>-2801778.27563158</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2587,7 +2637,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2620,7 +2674,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2653,7 +2711,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2686,7 +2748,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2719,7 +2785,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2752,7 +2822,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2785,7 +2859,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2818,7 +2896,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +2933,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +2970,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +3007,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +3044,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2983,7 +3081,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,14 +3114,16 @@
         <v>-2469352.98243158</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3474,7 +3578,7 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3507,7 +3611,7 @@
         <v>-2490715.52913158</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3644,7 @@
         <v>-2455978.79223158</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3573,7 +3677,7 @@
         <v>-2442284.78093158</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3710,7 @@
         <v>-2476268.15943158</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3743,7 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3672,7 +3776,7 @@
         <v>-2415854.453884453</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3705,7 +3809,7 @@
         <v>-2424390.427384452</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3738,7 +3842,7 @@
         <v>-2368390.427384452</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3771,7 +3875,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest MIX.xlsx
+++ b/BackTest/2020-01-22 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>480</v>
       </c>
       <c r="G2" t="n">
-        <v>-3169158.42313158</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>47808.764</v>
       </c>
       <c r="G3" t="n">
-        <v>-3216967.187131579</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>52191.236</v>
       </c>
       <c r="G4" t="n">
-        <v>-3216967.187131579</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>190</v>
       </c>
       <c r="G5" t="n">
-        <v>-3216777.187131579</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9066.1404</v>
       </c>
       <c r="G6" t="n">
-        <v>-3225843.327531579</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>818677.1580000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-3225843.327531579</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>190</v>
       </c>
       <c r="G8" t="n">
-        <v>-3225653.327531579</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>244370.8336</v>
       </c>
       <c r="G9" t="n">
-        <v>-3470024.161131579</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>73346.1691</v>
       </c>
       <c r="G10" t="n">
-        <v>-3396677.992031579</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>323082.7702</v>
       </c>
       <c r="G11" t="n">
-        <v>-3396677.992031579</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>-3396177.992031579</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16352.137</v>
       </c>
       <c r="G13" t="n">
-        <v>-3379825.855031579</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>391772.6978</v>
       </c>
       <c r="G14" t="n">
-        <v>-3771598.552831579</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>11023.56</v>
       </c>
       <c r="G15" t="n">
-        <v>-3782622.11283158</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>15502.2798</v>
       </c>
       <c r="G16" t="n">
-        <v>-3798124.39263158</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>180</v>
       </c>
       <c r="G17" t="n">
-        <v>-3797944.39263158</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>13078.56</v>
       </c>
       <c r="G18" t="n">
-        <v>-3811022.95263158</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>18794.8891</v>
       </c>
       <c r="G19" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>141120.4399</v>
       </c>
       <c r="G20" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>141622</v>
       </c>
       <c r="G21" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>334743.8018</v>
       </c>
       <c r="G22" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>636</v>
       </c>
       <c r="G23" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5388.2903</v>
       </c>
       <c r="G24" t="n">
-        <v>-3792228.06353158</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1001.563</v>
       </c>
       <c r="G25" t="n">
-        <v>-3791226.50053158</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1702533.931</v>
       </c>
       <c r="G26" t="n">
-        <v>-2088692.56953158</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>260000</v>
       </c>
       <c r="G27" t="n">
-        <v>-2088692.56953158</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>62124.9439</v>
       </c>
       <c r="G28" t="n">
-        <v>-2026567.62563158</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>60270</v>
       </c>
       <c r="G29" t="n">
-        <v>-1966297.62563158</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>59760</v>
       </c>
       <c r="G30" t="n">
-        <v>-1906537.62563158</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5000</v>
       </c>
       <c r="G31" t="n">
-        <v>-1906537.62563158</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4973.127</v>
       </c>
       <c r="G32" t="n">
-        <v>-1911510.75263158</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1960.6181</v>
       </c>
       <c r="G33" t="n">
-        <v>-1913471.37073158</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4388.1387</v>
       </c>
       <c r="G34" t="n">
-        <v>-1917859.50943158</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4208.2309</v>
       </c>
       <c r="G35" t="n">
-        <v>-1922067.74033158</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>61613.456</v>
       </c>
       <c r="G36" t="n">
-        <v>-1983681.19633158</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>14278.4153</v>
       </c>
       <c r="G37" t="n">
-        <v>-1997959.61163158</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>51965.6336</v>
       </c>
       <c r="G38" t="n">
-        <v>-1945993.97803158</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>48034.3664</v>
       </c>
       <c r="G39" t="n">
-        <v>-1945993.97803158</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,22 +1583,15 @@
         <v>60645.7713</v>
       </c>
       <c r="G40" t="n">
-        <v>-1945993.97803158</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1739,26 +1613,15 @@
         <v>589354.2287</v>
       </c>
       <c r="G41" t="n">
-        <v>-1945993.97803158</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1780,26 +1643,15 @@
         <v>7000</v>
       </c>
       <c r="G42" t="n">
-        <v>-1938993.97803158</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,22 +1673,15 @@
         <v>765.1446999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-1939759.12273158</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1858,24 +1703,15 @@
         <v>190</v>
       </c>
       <c r="G44" t="n">
-        <v>-1939569.12273158</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1897,26 +1733,15 @@
         <v>10078.56</v>
       </c>
       <c r="G45" t="n">
-        <v>-1949647.68273158</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1938,18 +1763,15 @@
         <v>302265.697</v>
       </c>
       <c r="G46" t="n">
-        <v>-1647381.98573158</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1971,18 +1793,15 @@
         <v>500</v>
       </c>
       <c r="G47" t="n">
-        <v>-1646881.98573158</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2004,18 +1823,15 @@
         <v>60660.7531</v>
       </c>
       <c r="G48" t="n">
-        <v>-1707542.73883158</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2037,18 +1853,15 @@
         <v>12078.563</v>
       </c>
       <c r="G49" t="n">
-        <v>-1719621.30183158</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2070,18 +1883,15 @@
         <v>329.164</v>
       </c>
       <c r="G50" t="n">
-        <v>-1719621.30183158</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,18 +1913,15 @@
         <v>500</v>
       </c>
       <c r="G51" t="n">
-        <v>-1719121.30183158</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2136,18 +1943,15 @@
         <v>68770.9749</v>
       </c>
       <c r="G52" t="n">
-        <v>-1787892.27673158</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2169,18 +1973,15 @@
         <v>500</v>
       </c>
       <c r="G53" t="n">
-        <v>-1787392.27673158</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2202,18 +2003,15 @@
         <v>20742.6729</v>
       </c>
       <c r="G54" t="n">
-        <v>-1808134.94963158</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2235,18 +2033,15 @@
         <v>4000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1804134.94963158</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2268,18 +2063,15 @@
         <v>987347.0391000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-2791481.98873158</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2301,18 +2093,15 @@
         <v>500</v>
       </c>
       <c r="G57" t="n">
-        <v>-2790981.98873158</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2334,18 +2123,15 @@
         <v>80434.36010000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-2871416.34883158</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2367,18 +2153,15 @@
         <v>7533.0876</v>
       </c>
       <c r="G59" t="n">
-        <v>-2863883.26123158</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2400,24 +2183,21 @@
         <v>267310.1073</v>
       </c>
       <c r="G60" t="n">
-        <v>-3131193.36853158</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
         <v>3.01</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2439,24 +2219,21 @@
         <v>6998</v>
       </c>
       <c r="G61" t="n">
-        <v>-3124195.36853158</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
         <v>3.007</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2478,24 +2255,21 @@
         <v>285436.0567</v>
       </c>
       <c r="G62" t="n">
-        <v>-2838759.31183158</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
         <v>3.01</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2517,24 +2291,21 @@
         <v>190</v>
       </c>
       <c r="G63" t="n">
-        <v>-2838569.31183158</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
         <v>3.011</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2556,22 +2327,21 @@
         <v>25551.3116</v>
       </c>
       <c r="G64" t="n">
-        <v>-2813018.00023158</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3.029</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2593,22 +2363,19 @@
         <v>11239.7246</v>
       </c>
       <c r="G65" t="n">
-        <v>-2801778.27563158</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2630,22 +2397,19 @@
         <v>216756.3643</v>
       </c>
       <c r="G66" t="n">
-        <v>-2585021.91133158</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2667,22 +2431,19 @@
         <v>49345.6104</v>
       </c>
       <c r="G67" t="n">
-        <v>-2535676.30093158</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2704,22 +2465,19 @@
         <v>1405.56</v>
       </c>
       <c r="G68" t="n">
-        <v>-2534270.74093158</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2741,22 +2499,19 @@
         <v>624907.7765</v>
       </c>
       <c r="G69" t="n">
-        <v>-2534270.74093158</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2778,22 +2533,19 @@
         <v>117068</v>
       </c>
       <c r="G70" t="n">
-        <v>-2417202.74093158</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2815,22 +2567,19 @@
         <v>120300.2153</v>
       </c>
       <c r="G71" t="n">
-        <v>-2296902.52563158</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2852,22 +2601,19 @@
         <v>38796.563</v>
       </c>
       <c r="G72" t="n">
-        <v>-2335699.08863158</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2889,22 +2635,19 @@
         <v>44002.6313</v>
       </c>
       <c r="G73" t="n">
-        <v>-2379701.71993158</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2926,22 +2669,19 @@
         <v>97117.8086</v>
       </c>
       <c r="G74" t="n">
-        <v>-2379701.71993158</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2963,22 +2703,19 @@
         <v>2884.0478</v>
       </c>
       <c r="G75" t="n">
-        <v>-2379701.71993158</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3000,22 +2737,19 @@
         <v>33244.3739</v>
       </c>
       <c r="G76" t="n">
-        <v>-2412946.09383158</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3037,22 +2771,19 @@
         <v>25907.6781</v>
       </c>
       <c r="G77" t="n">
-        <v>-2438853.77193158</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3074,22 +2805,17 @@
         <v>1001</v>
       </c>
       <c r="G78" t="n">
-        <v>-2437852.77193158</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3111,20 +2837,15 @@
         <v>31500.2105</v>
       </c>
       <c r="G79" t="n">
-        <v>-2469352.98243158</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K79" t="n">
+        <v>1</v>
       </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3146,18 +2867,15 @@
         <v>19193.1659</v>
       </c>
       <c r="G80" t="n">
-        <v>-2450159.81653158</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3179,18 +2897,15 @@
         <v>975.7089999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-2451135.52553158</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3212,18 +2927,15 @@
         <v>31312.8106</v>
       </c>
       <c r="G82" t="n">
-        <v>-2482448.33613158</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3245,18 +2957,15 @@
         <v>4200</v>
       </c>
       <c r="G83" t="n">
-        <v>-2486648.33613158</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3278,18 +2987,15 @@
         <v>1909.049</v>
       </c>
       <c r="G84" t="n">
-        <v>-2484739.28713158</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3311,18 +3017,15 @@
         <v>28626.2266</v>
       </c>
       <c r="G85" t="n">
-        <v>-2484739.28713158</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3344,18 +3047,15 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>-2484539.28713158</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3377,18 +3077,15 @@
         <v>14785.017</v>
       </c>
       <c r="G87" t="n">
-        <v>-2499324.30413158</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3410,18 +3107,15 @@
         <v>8900</v>
       </c>
       <c r="G88" t="n">
-        <v>-2490424.30413158</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3443,18 +3137,15 @@
         <v>8400</v>
       </c>
       <c r="G89" t="n">
-        <v>-2482024.30413158</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3476,18 +3167,15 @@
         <v>48827.511</v>
       </c>
       <c r="G90" t="n">
-        <v>-2530851.81513158</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3509,18 +3197,15 @@
         <v>8303.6561</v>
       </c>
       <c r="G91" t="n">
-        <v>-2522548.15903158</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3542,18 +3227,15 @@
         <v>9514.5499</v>
       </c>
       <c r="G92" t="n">
-        <v>-2513033.60913158</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3575,18 +3257,15 @@
         <v>10571.7221</v>
       </c>
       <c r="G93" t="n">
-        <v>-2502461.88703158</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3608,18 +3287,15 @@
         <v>11746.3579</v>
       </c>
       <c r="G94" t="n">
-        <v>-2490715.52913158</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3641,18 +3317,15 @@
         <v>34736.7369</v>
       </c>
       <c r="G95" t="n">
-        <v>-2455978.79223158</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3674,18 +3347,15 @@
         <v>13694.0113</v>
       </c>
       <c r="G96" t="n">
-        <v>-2442284.78093158</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3707,18 +3377,15 @@
         <v>33983.3785</v>
       </c>
       <c r="G97" t="n">
-        <v>-2476268.15943158</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3740,18 +3407,15 @@
         <v>37504.7073</v>
       </c>
       <c r="G98" t="n">
-        <v>-2513772.86673158</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3773,18 +3437,15 @@
         <v>97918.41284712794</v>
       </c>
       <c r="G99" t="n">
-        <v>-2415854.453884453</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3806,18 +3467,15 @@
         <v>8535.9735</v>
       </c>
       <c r="G100" t="n">
-        <v>-2424390.427384452</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3839,18 +3497,15 @@
         <v>56000</v>
       </c>
       <c r="G101" t="n">
-        <v>-2368390.427384452</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3872,18 +3527,15 @@
         <v>6500</v>
       </c>
       <c r="G102" t="n">
-        <v>-2374890.427384452</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3905,18 +3557,15 @@
         <v>46000</v>
       </c>
       <c r="G103" t="n">
-        <v>-2374890.427384452</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3938,18 +3587,15 @@
         <v>47000</v>
       </c>
       <c r="G104" t="n">
-        <v>-2374890.427384452</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3971,18 +3617,15 @@
         <v>75687.7555</v>
       </c>
       <c r="G105" t="n">
-        <v>-2450578.182884452</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4004,18 +3647,15 @@
         <v>312.2445</v>
       </c>
       <c r="G106" t="n">
-        <v>-2450578.182884452</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4037,18 +3677,15 @@
         <v>3955.6766</v>
       </c>
       <c r="G107" t="n">
-        <v>-2450578.182884452</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
